--- a/biology/Botanique/Érable_de_Cappadoce/Érable_de_Cappadoce.xlsx
+++ b/biology/Botanique/Érable_de_Cappadoce/Érable_de_Cappadoce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable_de_Cappadoce</t>
+          <t>Érable_de_Cappadoce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer cappadocicum
 L'érable de Cappadoce (Acer cappadocicum), aussi appelé « érable de Colchide », est une espèce d'érable appartenant à la section Platanoidea de la classification des érables.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rable_de_Cappadoce</t>
+          <t>Érable_de_Cappadoce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand arbre à tête ronde pouvant atteindre 30 m de haut. Présence de latex dans les feuilles. Les feuilles sont palmées, non dentées, de 10 cm, au pétiole souvent rouge.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rable_de_Cappadoce</t>
+          <t>Érable_de_Cappadoce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve l'érable de Cappadoce dans les forêts montagneuses du sud de l'Italie, au bord de la Méditerranée jusqu'au Caucase et vers la Chine occidentale.
 </t>
